--- a/datasets/eafs2025_gsr.xlsx
+++ b/datasets/eafs2025_gsr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\Desktop_Ghent\Conferences\2024_AAFS\Workshop\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\Desktop_Ghent\Conferences\2025_EAFS\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCC1795-1B09-4501-BE84-CB6AAF7985E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE3E16-BB56-4D05-A9D2-54286D5AA6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stub_hands" sheetId="3" r:id="rId1"/>
@@ -917,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C0808D-514E-4A73-B57A-F3BF83743C74}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -8496,8 +8496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E9A96-C009-40A3-BABB-EE79BA92D019}">
   <dimension ref="A1:J161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/datasets/eafs2025_gsr.xlsx
+++ b/datasets/eafs2025_gsr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\Desktop_Ghent\Conferences\2025_EAFS\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\Desktop_Ghent\Conferences\2025_EAFS\eafs2025_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBE3E16-BB56-4D05-A9D2-54286D5AA6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13FDA2B-21A3-418A-9305-9A82DDE6E169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="189">
   <si>
     <t>Stub</t>
   </si>
@@ -598,6 +598,15 @@
   </si>
   <si>
     <t>G3_2725_hammer</t>
+  </si>
+  <si>
+    <t>Class2</t>
+  </si>
+  <si>
+    <t>Type_B</t>
+  </si>
+  <si>
+    <t>Type_C</t>
   </si>
 </sst>
 </file>
@@ -8494,15 +8503,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0E9A96-C009-40A3-BABB-EE79BA92D019}">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8513,28 +8522,31 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -8544,29 +8556,32 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
         <v>1.54</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.2</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9.42</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.38</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>35.81</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>14.66</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>35.17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -8576,29 +8591,32 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
         <v>0.83</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.32</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3.42</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>30.12</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>22.03</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>28.28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -8608,29 +8626,32 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
         <v>3.12</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.62</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.4300000000000002</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.17</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>9.5299999999999994</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>47.06</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>36.07</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -8640,29 +8661,32 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
         <v>1.71</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.54</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3.77</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.49</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>25.75</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>31.53</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>34.770000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -8672,29 +8696,32 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
         <v>3.16</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>3.07</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.81</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>30</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>9.77</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>51.18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -8704,29 +8731,32 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
         <v>0.91</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.36</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3.96</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.01</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>18.96</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>48.92</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>25.89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -8736,29 +8766,32 @@
       <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
         <v>1.98</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5.25</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.2</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>24.7</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>23.21</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>42.46</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8768,29 +8801,32 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
         <v>2.37</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.41</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3.84</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.81</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>39.03</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>22.01</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>30.53</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -8800,29 +8836,32 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
         <v>1.77</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0.92</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.9</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>37.340000000000003</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>31.71</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>27.37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -8832,29 +8871,32 @@
       <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
         <v>1.54</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4.22</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>21.85</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>48.89</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>19.98</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -8864,29 +8906,32 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
         <v>1.34</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.47</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.01</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.59</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>32.49</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>39.18</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>20.72</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -8896,29 +8941,32 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
         <v>2.89</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1.54</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.17</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>6.76</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>27.31</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>33.090000000000003</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>26.4</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -8928,29 +8976,32 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
         <v>1.7</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.79</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.37</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>14.55</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>57.1</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>20.61</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -8960,29 +9011,32 @@
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
         <v>1.33</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.64</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.78</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>12.98</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>51.48</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>22.02</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -8992,29 +9046,32 @@
       <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
         <v>2.06</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.41</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.91</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>3.14</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>20.07</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>34.880000000000003</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>31.49</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -9024,29 +9081,32 @@
       <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
         <v>2.36</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.3</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.03</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2.14</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>25.24</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>40.159999999999997</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>18.82</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -9056,29 +9116,32 @@
       <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
         <v>0.75</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.61</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.51</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.03</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>21.31</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>57.72</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>16.13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -9088,29 +9151,32 @@
       <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
         <v>1.84</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.32</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.76</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1.99</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>56.27</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>15.66</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>21.05</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -9120,29 +9186,32 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
         <v>1.42</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.5</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.87</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>3.12</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>23.85</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>55.51</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -9152,29 +9221,32 @@
       <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
         <v>0.71</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.32</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.41</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.54</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>26.14</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>62.52</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -9184,29 +9256,32 @@
       <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
         <v>1.82</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.38</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.73</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>3.89</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>42.71</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>34.409999999999997</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9216,29 +9291,32 @@
       <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
         <v>0.86</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.36</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.53</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.31</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>33.35</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>51.25</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -9248,29 +9326,32 @@
       <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.48</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.98</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2.33</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>17.34</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>69.150000000000006</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -9280,29 +9361,32 @@
       <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
         <v>2.96</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.94</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>4.18</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>40.630000000000003</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>32.92</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -9312,29 +9396,32 @@
       <c r="C26" t="s">
         <v>19</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
         <v>0.76</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.2</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.4</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.75</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>13.76</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>78.06</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -9344,29 +9431,32 @@
       <c r="C27" t="s">
         <v>19</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
         <v>0.9</v>
-      </c>
-      <c r="E27">
-        <v>0.28000000000000003</v>
       </c>
       <c r="F27">
         <v>0.28000000000000003</v>
       </c>
       <c r="G27">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H27">
         <v>0.79</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>43.04</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>44.95</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -9376,29 +9466,32 @@
       <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28">
         <v>1.39</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>0.36</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.45</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1.84</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>57.14</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>18.190000000000001</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -9408,29 +9501,32 @@
       <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
         <v>3.69</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.42</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>10.11</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>17.440000000000001</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>29.37</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>16.14</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>21.3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -9440,29 +9536,32 @@
       <c r="C30" t="s">
         <v>18</v>
       </c>
-      <c r="D30">
-        <v>0</v>
+      <c r="D30" t="s">
+        <v>18</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>0.67</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>6.08</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>10.76</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>29.73</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>22.03</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>28.49</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -9472,29 +9571,32 @@
       <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31">
         <v>2.04</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.6</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>13.24</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>12.6</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>27.46</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>16.22</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>25.95</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -9504,29 +9606,32 @@
       <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D32">
-        <v>0</v>
+      <c r="D32" t="s">
+        <v>18</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>0.79</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>8.76</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>11.35</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>22.07</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>20.75</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>35.380000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -9536,29 +9641,32 @@
       <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33">
         <v>3.28</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.93</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>10.35</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>12.16</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>27.64</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>12.88</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>32.090000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -9568,29 +9676,32 @@
       <c r="C34" t="s">
         <v>18</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34">
         <v>1.27</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>2.72</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>4.75</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>41.65</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>13</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>36.33</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>57</v>
       </c>
@@ -9600,29 +9711,32 @@
       <c r="C35" t="s">
         <v>18</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
         <v>3.04</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.49</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>7.6</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>15.11</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>36.47</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>16.809999999999999</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>20.260000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -9632,29 +9746,32 @@
       <c r="C36" t="s">
         <v>18</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36">
         <v>1.7</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>0.46</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>4.91</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>3.05</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>29.33</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>41.12</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>19.420000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -9664,29 +9781,32 @@
       <c r="C37" t="s">
         <v>18</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
       <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>2.56</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>14.99</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>31.14</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>10.38</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>37.81</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -9696,29 +9816,32 @@
       <c r="C38" t="s">
         <v>20</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38">
         <v>1.22</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.38</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>1.01</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>4.45</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>23.72</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>44.96</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>24.25</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -9728,29 +9851,32 @@
       <c r="C39" t="s">
         <v>20</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39">
         <v>2.89</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>0.51</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.81</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>2.23</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>22.46</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>50.7</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>19.78</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -9760,29 +9886,32 @@
       <c r="C40" t="s">
         <v>20</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40">
         <v>3.89</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.8</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>1.96</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>35.4</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>28.98</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>27.56</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -9792,29 +9921,32 @@
       <c r="C41" t="s">
         <v>20</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41">
         <v>1.47</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>0.41</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.47</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>2.4700000000000002</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>33.21</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>31.51</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>30.08</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -9824,29 +9956,32 @@
       <c r="C42" t="s">
         <v>20</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>0.54</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.73</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>28.42</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>46.21</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>20.5</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -9856,29 +9991,32 @@
       <c r="C43" t="s">
         <v>20</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43">
         <v>1.61</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.59</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.95</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>23.61</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>54.31</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -9888,29 +10026,32 @@
       <c r="C44" t="s">
         <v>20</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44">
         <v>7.58</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>0.62</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>1.28</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>4.84</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>42.51</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>22.16</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>19.98</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -9920,29 +10061,32 @@
       <c r="C45" t="s">
         <v>20</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45">
         <v>1.38</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>0.31</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.53</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>1.1399999999999999</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>49.43</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>29.94</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>17.260000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -9952,29 +10096,32 @@
       <c r="C46" t="s">
         <v>20</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46">
         <v>1.75</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>0.49</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.74</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>26.98</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>41.5</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>27.43</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -9984,29 +10131,32 @@
       <c r="C47" t="s">
         <v>19</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47">
         <v>0.49</v>
       </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
       <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
         <v>0.66</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>4.09</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>19.989999999999998</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>66.59</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -10016,29 +10166,32 @@
       <c r="C48" t="s">
         <v>19</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48">
         <v>0.49</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
       <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>0.86</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>8.06</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>37.520000000000003</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>41.79</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -10048,29 +10201,32 @@
       <c r="C49" t="s">
         <v>19</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49">
         <v>3.7</v>
       </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>0.99</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>15.28</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>56.22</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>11.04</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -10080,29 +10236,32 @@
       <c r="C50" t="s">
         <v>19</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50">
         <v>1.1399999999999999</v>
       </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
       <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>3.36</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>23.53</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>65.16</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>73</v>
       </c>
@@ -10112,29 +10271,32 @@
       <c r="C51" t="s">
         <v>19</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51">
         <v>2.08</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>0.4</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.84</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>5.36</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>26.4</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>53.93</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -10144,29 +10306,32 @@
       <c r="C52" t="s">
         <v>19</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52">
         <v>1.28</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>0.35</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>5.4</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>2.64</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>14.38</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>70.38</v>
       </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -10176,29 +10341,32 @@
       <c r="C53" t="s">
         <v>19</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53">
         <v>0.93</v>
       </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
       <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <v>0.82</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>4.63</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>19.010000000000002</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>66.25</v>
       </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>76</v>
       </c>
@@ -10208,29 +10376,32 @@
       <c r="C54" t="s">
         <v>19</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54">
         <v>0.76</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>0.41</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.68</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>3.62</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>19.04</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>67.5</v>
       </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -10240,29 +10411,32 @@
       <c r="C55" t="s">
         <v>19</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55">
         <v>3.46</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>0.35</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0.93</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>34.909999999999997</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>24.55</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>17.11</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -10272,29 +10446,32 @@
       <c r="C56" t="s">
         <v>18</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56">
         <v>1.45</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>1.65</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>2.06</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>3.1</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>18.12</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>17.21</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>49.84</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -10304,29 +10481,32 @@
       <c r="C57" t="s">
         <v>18</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57">
         <v>1.06</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>0.89</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>1.01</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>1.68</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>7.21</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>24.65</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>20.23</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -10336,29 +10516,32 @@
       <c r="C58" t="s">
         <v>18</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58">
         <v>2.72</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>0.98</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>3.49</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>0.82</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>14.91</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>21.13</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>21.9</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -10368,29 +10551,32 @@
       <c r="C59" t="s">
         <v>18</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59">
         <v>5.34</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>1.33</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>7.56</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>1.28</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>25.72</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>30.24</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>18.63</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -10400,29 +10586,32 @@
       <c r="C60" t="s">
         <v>18</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60">
         <v>0.94</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>0.67</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>3.88</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>0.96</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>6.44</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>45.24</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>23.55</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -10432,29 +10621,32 @@
       <c r="C61" t="s">
         <v>18</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61">
         <v>1.8</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>0.77</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>1.68</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>0.94</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>17.45</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>29.4</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>13.23</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -10464,29 +10656,32 @@
       <c r="C62" t="s">
         <v>18</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62">
         <v>1.25</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>0.76</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>4.5</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>1.25</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>9.32</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>31.02</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>28.95</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -10496,29 +10691,32 @@
       <c r="C63" t="s">
         <v>18</v>
       </c>
-      <c r="D63">
-        <v>0</v>
+      <c r="D63" t="s">
+        <v>187</v>
       </c>
       <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
         <v>1.08</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>1.05</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>1.4</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>23.78</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>29.75</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>35.380000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -10528,29 +10726,32 @@
       <c r="C64" t="s">
         <v>18</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="s">
+        <v>187</v>
+      </c>
+      <c r="E64">
         <v>1.01</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>0.41</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>0.7</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>14.14</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>51.77</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>10.78</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -10560,29 +10761,32 @@
       <c r="C65" t="s">
         <v>18</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65">
         <v>0.38</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>0.71</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>0.7</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>0.83</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>20.239999999999998</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>36.92</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>26.87</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -10592,29 +10796,32 @@
       <c r="C66" t="s">
         <v>18</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66">
         <v>3.18</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>1.27</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>2.5299999999999998</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>1.69</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>24.7</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>23.12</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>34.6</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -10624,29 +10831,32 @@
       <c r="C67" t="s">
         <v>18</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="s">
+        <v>187</v>
+      </c>
+      <c r="E67">
         <v>0.51</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
         <v>0.73</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>23.56</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>29.48</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>29.12</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -10656,29 +10866,32 @@
       <c r="C68" t="s">
         <v>18</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68">
         <v>4.07</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>1</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>1.55</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>4.75</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>4.82</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>22.33</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>16.63</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -10688,29 +10901,32 @@
       <c r="C69" t="s">
         <v>18</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69">
         <v>0.51</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>0.19</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>0.32</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>0.77</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>39.19</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>19.399999999999999</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>29.42</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>93</v>
       </c>
@@ -10720,29 +10936,32 @@
       <c r="C70" t="s">
         <v>18</v>
       </c>
-      <c r="D70">
-        <v>0</v>
+      <c r="D70" t="s">
+        <v>187</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
         <v>0.83</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>10.050000000000001</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>7.46</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>18.27</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>52.73</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -10752,8 +10971,8 @@
       <c r="C71" t="s">
         <v>18</v>
       </c>
-      <c r="D71">
-        <v>0</v>
+      <c r="D71" t="s">
+        <v>187</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -10762,19 +10981,22 @@
         <v>0</v>
       </c>
       <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>0.93</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>3.59</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>3.84</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>90.35</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>95</v>
       </c>
@@ -10784,29 +11006,32 @@
       <c r="C72" t="s">
         <v>18</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E72">
         <v>0.74</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>0.44</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>0.53</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>0.9</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>7.93</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>43.99</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>10.83</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -10816,29 +11041,32 @@
       <c r="C73" t="s">
         <v>18</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>0.51</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>1.02</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>1.66</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>5.86</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>56.54</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>97</v>
       </c>
@@ -10848,29 +11076,32 @@
       <c r="C74" t="s">
         <v>18</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74">
         <v>2.76</v>
-      </c>
-      <c r="E74">
-        <v>0.57999999999999996</v>
       </c>
       <c r="F74">
         <v>0.57999999999999996</v>
       </c>
       <c r="G74">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H74">
         <v>1.24</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>11.74</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>61.66</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>20.09</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -10880,29 +11111,32 @@
       <c r="C75" t="s">
         <v>18</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75">
         <v>2.23</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>0.32</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>0.4</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>1.1499999999999999</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>36.19</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>7.53</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>27.7</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>99</v>
       </c>
@@ -10912,29 +11146,32 @@
       <c r="C76" t="s">
         <v>18</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="s">
+        <v>187</v>
+      </c>
+      <c r="E76">
         <v>1.39</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>0.72</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>1.98</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>0.71</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>19.010000000000002</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>35.020000000000003</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>11.7</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -10944,29 +11181,32 @@
       <c r="C77" t="s">
         <v>18</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77">
         <v>1.94</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>0.39</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>1.24</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>13.67</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>39.99</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>14.71</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -10976,29 +11216,32 @@
       <c r="C78" t="s">
         <v>18</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="s">
+        <v>187</v>
+      </c>
+      <c r="E78">
         <v>0.3</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>0.39</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>3.3</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>0.69</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>19.309999999999999</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>48.84</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>14.81</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>102</v>
       </c>
@@ -11008,29 +11251,32 @@
       <c r="C79" t="s">
         <v>18</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79">
         <v>1.41</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>0.38</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>1.08</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>0.87</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>7.12</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>24.14</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>32.31</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -11040,29 +11286,32 @@
       <c r="C80" t="s">
         <v>18</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80">
         <v>2.83</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>1.39</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>4.25</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>1</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>14.51</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>48.7</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>13.13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -11072,29 +11321,32 @@
       <c r="C81" t="s">
         <v>18</v>
       </c>
-      <c r="D81">
-        <v>0</v>
+      <c r="D81" t="s">
+        <v>187</v>
       </c>
       <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>1.02</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>3.52</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>8.2100000000000009</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>33.67</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>25.34</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>105</v>
       </c>
@@ -11104,29 +11356,32 @@
       <c r="C82" t="s">
         <v>18</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82">
         <v>1.7</v>
-      </c>
-      <c r="E82">
-        <v>1.03</v>
       </c>
       <c r="F82">
         <v>1.03</v>
       </c>
       <c r="G82">
+        <v>1.03</v>
+      </c>
+      <c r="H82">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>12.42</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>24.95</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>29.3</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>106</v>
       </c>
@@ -11136,29 +11391,32 @@
       <c r="C83" t="s">
         <v>18</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="s">
+        <v>187</v>
+      </c>
+      <c r="E83">
         <v>0.68</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>0.9</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>2.87</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>1.32</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>9.8800000000000008</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>33.74</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>27.34</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -11168,29 +11426,32 @@
       <c r="C84" t="s">
         <v>20</v>
       </c>
-      <c r="D84">
-        <v>0</v>
+      <c r="D84" t="s">
+        <v>187</v>
       </c>
       <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
         <v>0.53</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>0.43</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>13.59</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>20.27</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>9.14</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>18.86</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -11200,29 +11461,32 @@
       <c r="C85" t="s">
         <v>20</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="s">
+        <v>187</v>
+      </c>
+      <c r="E85">
         <v>0.62</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>0.48</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>0.44</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>1.04</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>10.87</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>44.42</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>12.93</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -11232,29 +11496,32 @@
       <c r="C86" t="s">
         <v>20</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86">
         <v>1.19</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>0.34</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>0.37</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>0.79</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>15.39</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>40.43</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>11.75</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -11264,29 +11531,32 @@
       <c r="C87" t="s">
         <v>20</v>
       </c>
-      <c r="D87">
-        <v>0</v>
+      <c r="D87" t="s">
+        <v>187</v>
       </c>
       <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
       <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
         <v>0.9</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>4.32</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>5.3</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>68.87</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>111</v>
       </c>
@@ -11296,29 +11566,32 @@
       <c r="C88" t="s">
         <v>20</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88">
         <v>2.17</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>0.99</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>1.1499999999999999</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>2.9</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>20.010000000000002</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>10.96</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -11328,29 +11601,32 @@
       <c r="C89" t="s">
         <v>20</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89">
         <v>2.02</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>8.8699999999999992</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>0.77</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>6.92</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>14.57</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>32.729999999999997</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>16.48</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -11360,29 +11636,32 @@
       <c r="C90" t="s">
         <v>20</v>
       </c>
-      <c r="D90">
-        <v>0</v>
+      <c r="D90" t="s">
+        <v>187</v>
       </c>
       <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
         <v>0.47</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>0.63</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>5</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>18.25</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>28.22</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>29.01</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -11392,29 +11671,32 @@
       <c r="C91" t="s">
         <v>20</v>
       </c>
-      <c r="D91">
-        <v>0</v>
+      <c r="D91" t="s">
+        <v>187</v>
       </c>
       <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
         <v>1.27</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>0.83</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>3.54</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>18.600000000000001</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>27.36</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>19.98</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -11424,29 +11706,32 @@
       <c r="C92" t="s">
         <v>20</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92">
         <v>1.6</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>0.5</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>0.53</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>1.08</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>13.06</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>49.41</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>7.94</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>116</v>
       </c>
@@ -11456,29 +11741,32 @@
       <c r="C93" t="s">
         <v>20</v>
       </c>
-      <c r="D93">
-        <v>0</v>
+      <c r="D93" t="s">
+        <v>187</v>
       </c>
       <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
         <v>2.14</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>0.54</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>1.35</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>6.38</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>45.7</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>7.05</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>117</v>
       </c>
@@ -11488,29 +11776,32 @@
       <c r="C94" t="s">
         <v>20</v>
       </c>
-      <c r="D94">
-        <v>0</v>
+      <c r="D94" t="s">
+        <v>187</v>
       </c>
       <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
         <v>1.41</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>0.64</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>4.33</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>23.56</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>33.56</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>15.16</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>118</v>
       </c>
@@ -11520,29 +11811,32 @@
       <c r="C95" t="s">
         <v>20</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="s">
+        <v>187</v>
+      </c>
+      <c r="E95">
         <v>2.16</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>0.97</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>0.44</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>3.22</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>10.42</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>23.3</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>16.5</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>119</v>
       </c>
@@ -11552,29 +11846,32 @@
       <c r="C96" t="s">
         <v>20</v>
       </c>
-      <c r="D96">
-        <v>0</v>
+      <c r="D96" t="s">
+        <v>187</v>
       </c>
       <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
         <v>0.46</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>0.36</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>3.51</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>12.49</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>32.340000000000003</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>21.99</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>120</v>
       </c>
@@ -11584,29 +11881,32 @@
       <c r="C97" t="s">
         <v>20</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97">
         <v>1.08</v>
       </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
       <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
         <v>0.35</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>0.79</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>31.75</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>32.76</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>121</v>
       </c>
@@ -11616,29 +11916,32 @@
       <c r="C98" t="s">
         <v>20</v>
       </c>
-      <c r="D98">
-        <v>0</v>
+      <c r="D98" t="s">
+        <v>187</v>
       </c>
       <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
         <v>3.21</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>0.51</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>2.62</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>12.66</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>25.14</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>17.239999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>122</v>
       </c>
@@ -11648,29 +11951,32 @@
       <c r="C99" t="s">
         <v>20</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="s">
+        <v>187</v>
+      </c>
+      <c r="E99">
         <v>1.48</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>0.5</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>0.45</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>1.01</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>12.05</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>46.76</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>10.94</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>123</v>
       </c>
@@ -11680,29 +11986,32 @@
       <c r="C100" t="s">
         <v>20</v>
       </c>
-      <c r="D100">
-        <v>0</v>
+      <c r="D100" t="s">
+        <v>187</v>
       </c>
       <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
         <v>0.71</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>0.7</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>3.18</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>22.57</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>42.09</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>8.08</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>124</v>
       </c>
@@ -11712,29 +12021,32 @@
       <c r="C101" t="s">
         <v>20</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="s">
+        <v>187</v>
+      </c>
+      <c r="E101">
         <v>1.34</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>0.33</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>0.47</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>0.53</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>20.23</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>36.79</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>125</v>
       </c>
@@ -11744,29 +12056,32 @@
       <c r="C102" t="s">
         <v>20</v>
       </c>
-      <c r="D102">
-        <v>0</v>
+      <c r="D102" t="s">
+        <v>187</v>
       </c>
       <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
         <v>0.62</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>0.52</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>3.29</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>18.399999999999999</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>34.83</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>24.59</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>126</v>
       </c>
@@ -11776,29 +12091,32 @@
       <c r="C103" t="s">
         <v>20</v>
       </c>
-      <c r="D103">
-        <v>0</v>
+      <c r="D103" t="s">
+        <v>187</v>
       </c>
       <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
         <v>0.52</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>0.47</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>3.15</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>15.57</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>34.590000000000003</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>26.8</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>127</v>
       </c>
@@ -11808,29 +12126,32 @@
       <c r="C104" t="s">
         <v>20</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="s">
+        <v>187</v>
+      </c>
+      <c r="E104">
         <v>0.32</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>16.21</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>0.31</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>0.62</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>3.75</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>56.1</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>6.66</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>128</v>
       </c>
@@ -11840,29 +12161,32 @@
       <c r="C105" t="s">
         <v>20</v>
       </c>
-      <c r="D105">
-        <v>0</v>
+      <c r="D105" t="s">
+        <v>187</v>
       </c>
       <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
         <v>0.66</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>0.68</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>4.67</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>18.54</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>33.880000000000003</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>129</v>
       </c>
@@ -11872,29 +12196,32 @@
       <c r="C106" t="s">
         <v>20</v>
       </c>
-      <c r="D106">
-        <v>0</v>
+      <c r="D106" t="s">
+        <v>187</v>
       </c>
       <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
         <v>0.91</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>0.52</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>2.72</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>24.31</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>30.74</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>14.85</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>130</v>
       </c>
@@ -11904,29 +12231,32 @@
       <c r="C107" t="s">
         <v>20</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="s">
+        <v>187</v>
+      </c>
+      <c r="E107">
         <v>1.06</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>0.78</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>0.37</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>2.33</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>12.4</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>32.229999999999997</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>23.14</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>131</v>
       </c>
@@ -11936,29 +12266,32 @@
       <c r="C108" t="s">
         <v>20</v>
       </c>
-      <c r="D108">
-        <v>0</v>
+      <c r="D108" t="s">
+        <v>187</v>
       </c>
       <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
         <v>5.03</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>0.91</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>0.74</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>10.54</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>31.66</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>10.66</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>132</v>
       </c>
@@ -11968,29 +12301,32 @@
       <c r="C109" t="s">
         <v>20</v>
       </c>
-      <c r="D109">
-        <v>0</v>
+      <c r="D109" t="s">
+        <v>187</v>
       </c>
       <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
         <v>0.62</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>3.16</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>16.21</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>48.38</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>14.33</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>133</v>
       </c>
@@ -12000,29 +12336,32 @@
       <c r="C110" t="s">
         <v>20</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E110">
         <v>1.1599999999999999</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>0.24</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>0.42</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>7.84</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>31.06</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>14.53</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>134</v>
       </c>
@@ -12032,29 +12371,32 @@
       <c r="C111" t="s">
         <v>20</v>
       </c>
-      <c r="D111">
-        <v>0</v>
+      <c r="D111" t="s">
+        <v>187</v>
       </c>
       <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
         <v>0.48</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>0.78</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>5.99</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>14.86</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>34.520000000000003</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>20.53</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>135</v>
       </c>
@@ -12064,29 +12406,32 @@
       <c r="C112" t="s">
         <v>19</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="s">
+        <v>187</v>
+      </c>
+      <c r="E112">
         <v>0.76</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>0.24</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>1.48</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>9.6199999999999992</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>66.06</v>
       </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>136</v>
       </c>
@@ -12096,29 +12441,32 @@
       <c r="C113" t="s">
         <v>19</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="s">
+        <v>187</v>
+      </c>
+      <c r="E113">
         <v>9.0500000000000007</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>0.85</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>1.61</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>1.34</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>23.02</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>49.13</v>
       </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>137</v>
       </c>
@@ -12128,29 +12476,32 @@
       <c r="C114" t="s">
         <v>19</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="s">
+        <v>187</v>
+      </c>
+      <c r="E114">
         <v>3.9</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>0.7</v>
       </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
       <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
         <v>0.73</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>4.8099999999999996</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>47.5</v>
       </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -12160,29 +12511,32 @@
       <c r="C115" t="s">
         <v>19</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="s">
+        <v>187</v>
+      </c>
+      <c r="E115">
         <v>6.69</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>0.52</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>0.96</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>1.73</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>19.79</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>51.36</v>
       </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>139</v>
       </c>
@@ -12192,29 +12546,32 @@
       <c r="C116" t="s">
         <v>19</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="s">
+        <v>187</v>
+      </c>
+      <c r="E116">
         <v>0.34</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>0.19</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>0.27</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>0.66</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>11.69</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>66.819999999999993</v>
       </c>
-      <c r="J116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>140</v>
       </c>
@@ -12224,29 +12581,32 @@
       <c r="C117" t="s">
         <v>19</v>
       </c>
-      <c r="D117">
-        <v>0</v>
+      <c r="D117" t="s">
+        <v>187</v>
       </c>
       <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
         <v>0.44</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>0.18</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>0.53</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>58.11</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>19.309999999999999</v>
       </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>141</v>
       </c>
@@ -12256,29 +12616,32 @@
       <c r="C118" t="s">
         <v>19</v>
       </c>
-      <c r="D118">
+      <c r="D118" t="s">
+        <v>187</v>
+      </c>
+      <c r="E118">
         <v>5.71</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>0.83</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>0.67</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>0.96</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>33.03</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>23.47</v>
       </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>142</v>
       </c>
@@ -12288,29 +12651,32 @@
       <c r="C119" t="s">
         <v>19</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="s">
+        <v>187</v>
+      </c>
+      <c r="E119">
         <v>6.9</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>0.97</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>1.35</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>1.47</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>33.549999999999997</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>45.72</v>
       </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>143</v>
       </c>
@@ -12320,29 +12686,32 @@
       <c r="C120" t="s">
         <v>19</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="s">
+        <v>187</v>
+      </c>
+      <c r="E120">
         <v>0.42</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>0.19</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>0.26</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>0.81</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>20.239999999999998</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>58.98</v>
       </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>144</v>
       </c>
@@ -12352,29 +12721,32 @@
       <c r="C121" t="s">
         <v>19</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="s">
+        <v>187</v>
+      </c>
+      <c r="E121">
         <v>1.64</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>0.68</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>0.62</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>1.4</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>9.2100000000000009</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>58.57</v>
       </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>145</v>
       </c>
@@ -12384,29 +12756,32 @@
       <c r="C122" t="s">
         <v>19</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="s">
+        <v>187</v>
+      </c>
+      <c r="E122">
         <v>0.36</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>0.35</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>0.77</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>7.79</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>73</v>
       </c>
-      <c r="J122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>146</v>
       </c>
@@ -12416,29 +12791,32 @@
       <c r="C123" t="s">
         <v>19</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="s">
+        <v>187</v>
+      </c>
+      <c r="E123">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
       <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
         <v>0.23</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>0.96</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>27.18</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>48.62</v>
       </c>
-      <c r="J123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>147</v>
       </c>
@@ -12448,29 +12826,32 @@
       <c r="C124" t="s">
         <v>19</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="s">
+        <v>187</v>
+      </c>
+      <c r="E124">
         <v>0.77</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>0.42</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>0.33</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>0.72</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>41.61</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>46.87</v>
       </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>148</v>
       </c>
@@ -12480,29 +12861,32 @@
       <c r="C125" t="s">
         <v>19</v>
       </c>
-      <c r="D125">
+      <c r="D125" t="s">
+        <v>187</v>
+      </c>
+      <c r="E125">
         <v>1.94</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>0.48</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>0.47</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>0.78</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>28.12</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>36.07</v>
       </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>149</v>
       </c>
@@ -12512,29 +12896,32 @@
       <c r="C126" t="s">
         <v>19</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="s">
+        <v>187</v>
+      </c>
+      <c r="E126">
         <v>7.53</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>1.03</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>1.68</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>37.119999999999997</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>39.6</v>
       </c>
-      <c r="J126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>150</v>
       </c>
@@ -12544,29 +12931,32 @@
       <c r="C127" t="s">
         <v>19</v>
       </c>
-      <c r="D127">
+      <c r="D127" t="s">
+        <v>187</v>
+      </c>
+      <c r="E127">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
       <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
         <v>0.21</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>0.59</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>25.43</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>55.51</v>
       </c>
-      <c r="J127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>151</v>
       </c>
@@ -12576,29 +12966,32 @@
       <c r="C128" t="s">
         <v>19</v>
       </c>
-      <c r="D128">
+      <c r="D128" t="s">
+        <v>187</v>
+      </c>
+      <c r="E128">
         <v>1.36</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>1.7</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>2.95</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>0.8</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>29.66</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>35.43</v>
       </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>152</v>
       </c>
@@ -12608,29 +13001,32 @@
       <c r="C129" t="s">
         <v>19</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="s">
+        <v>187</v>
+      </c>
+      <c r="E129">
         <v>4.1399999999999997</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>0.46</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>1.34</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>1.06</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>24</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>57.81</v>
       </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>153</v>
       </c>
@@ -12640,29 +13036,32 @@
       <c r="C130" t="s">
         <v>19</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="s">
+        <v>187</v>
+      </c>
+      <c r="E130">
         <v>5.6</v>
       </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
       <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
         <v>1.03</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>2.13</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>23.91</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>18.28</v>
       </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>154</v>
       </c>
@@ -12672,29 +13071,32 @@
       <c r="C131" t="s">
         <v>19</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="s">
+        <v>187</v>
+      </c>
+      <c r="E131">
         <v>4.13</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>0.32</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>0.42</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>1.22</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>32.869999999999997</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>27.64</v>
       </c>
-      <c r="J131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>155</v>
       </c>
@@ -12704,29 +13106,32 @@
       <c r="C132" t="s">
         <v>19</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="s">
+        <v>187</v>
+      </c>
+      <c r="E132">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
       <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
         <v>0.3</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>0.92</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>27.6</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>52.43</v>
       </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>156</v>
       </c>
@@ -12736,29 +13141,32 @@
       <c r="C133" t="s">
         <v>19</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="s">
+        <v>187</v>
+      </c>
+      <c r="E133">
         <v>0.41</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>0.23</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>0.48</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>0.82</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>24.06</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>53.36</v>
       </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>157</v>
       </c>
@@ -12768,29 +13176,32 @@
       <c r="C134" t="s">
         <v>19</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="s">
+        <v>187</v>
+      </c>
+      <c r="E134">
         <v>1.49</v>
       </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
       <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
         <v>0.36</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>0.94</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>34.619999999999997</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>41.49</v>
       </c>
-      <c r="J134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>159</v>
       </c>
@@ -12800,29 +13211,32 @@
       <c r="C135" t="s">
         <v>18</v>
       </c>
-      <c r="D135">
-        <v>0</v>
+      <c r="D135" t="s">
+        <v>187</v>
       </c>
       <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
         <v>0.8</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>1.56</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>5.84</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>7.87</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>24</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>29.87</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>160</v>
       </c>
@@ -12832,29 +13246,32 @@
       <c r="C136" t="s">
         <v>18</v>
       </c>
-      <c r="D136">
-        <v>0</v>
+      <c r="D136" t="s">
+        <v>187</v>
       </c>
       <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
         <v>0.52</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>4.3099999999999996</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>3.37</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>25.07</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>23.14</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>36.340000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>161</v>
       </c>
@@ -12864,29 +13281,32 @@
       <c r="C137" t="s">
         <v>18</v>
       </c>
-      <c r="D137">
-        <v>0</v>
+      <c r="D137" t="s">
+        <v>187</v>
       </c>
       <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
         <v>0.6</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>1.25</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>4.72</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>13.2</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>21.6</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>57.01</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>162</v>
       </c>
@@ -12896,29 +13316,32 @@
       <c r="C138" t="s">
         <v>18</v>
       </c>
-      <c r="D138">
-        <v>0</v>
+      <c r="D138" t="s">
+        <v>187</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
       <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
         <v>1.19</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>5.49</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>14.23</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>46.09</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>29.19</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>163</v>
       </c>
@@ -12928,29 +13351,32 @@
       <c r="C139" t="s">
         <v>18</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="s">
+        <v>187</v>
+      </c>
+      <c r="E139">
         <v>3.27</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>0.7</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>1.63</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>2.1</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>6.43</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>62.01</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>19.48</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>164</v>
       </c>
@@ -12960,29 +13386,32 @@
       <c r="C140" t="s">
         <v>18</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="s">
+        <v>187</v>
+      </c>
+      <c r="E140">
         <v>1.34</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>0.52</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>1</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>2</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>6.83</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>36.46</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>48.7</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>165</v>
       </c>
@@ -12992,29 +13421,32 @@
       <c r="C141" t="s">
         <v>18</v>
       </c>
-      <c r="D141">
+      <c r="D141" t="s">
+        <v>187</v>
+      </c>
+      <c r="E141">
         <v>3.07</v>
       </c>
-      <c r="E141">
-        <v>0</v>
-      </c>
       <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
         <v>0.82</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>4.08</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>15.81</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>24.75</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>49.95</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>166</v>
       </c>
@@ -13024,29 +13456,32 @@
       <c r="C142" t="s">
         <v>18</v>
       </c>
-      <c r="D142">
+      <c r="D142" t="s">
+        <v>187</v>
+      </c>
+      <c r="E142">
         <v>2.14</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>0.31</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>3.09</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>5.71</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>25.48</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>3.9</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>58.92</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>167</v>
       </c>
@@ -13056,29 +13491,32 @@
       <c r="C143" t="s">
         <v>18</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="s">
+        <v>188</v>
+      </c>
+      <c r="E143">
         <v>2.23</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>1.08</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>1.61</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>6.42</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>13.17</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>33.94</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>38.6</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>168</v>
       </c>
@@ -13088,29 +13526,32 @@
       <c r="C144" t="s">
         <v>20</v>
       </c>
-      <c r="D144">
-        <v>0</v>
+      <c r="D144" t="s">
+        <v>188</v>
       </c>
       <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
         <v>1.8</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>1.1599999999999999</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>3.43</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>32.119999999999997</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>26.69</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>21.47</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>169</v>
       </c>
@@ -13120,29 +13561,32 @@
       <c r="C145" t="s">
         <v>20</v>
       </c>
-      <c r="D145">
+      <c r="D145" t="s">
+        <v>188</v>
+      </c>
+      <c r="E145">
         <v>1.17</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>0.67</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>0.62</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>2.21</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>31.1</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>14.63</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>45.77</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>170</v>
       </c>
@@ -13152,29 +13596,32 @@
       <c r="C146" t="s">
         <v>20</v>
       </c>
-      <c r="D146">
-        <v>0</v>
+      <c r="D146" t="s">
+        <v>188</v>
       </c>
       <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
         <v>2.3199999999999998</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>0.77</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>4.8899999999999997</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>11.05</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>40.24</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>17.79</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>171</v>
       </c>
@@ -13184,29 +13631,32 @@
       <c r="C147" t="s">
         <v>20</v>
       </c>
-      <c r="D147">
-        <v>0</v>
+      <c r="D147" t="s">
+        <v>188</v>
       </c>
       <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
         <v>2.67</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>0.65</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>6.92</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>21.65</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>31.27</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>22.84</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>172</v>
       </c>
@@ -13216,29 +13666,32 @@
       <c r="C148" t="s">
         <v>20</v>
       </c>
-      <c r="D148">
+      <c r="D148" t="s">
+        <v>188</v>
+      </c>
+      <c r="E148">
         <v>1.57</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>1.06</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>0.69</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>11.75</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>30.49</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>17.649999999999999</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>29.36</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>173</v>
       </c>
@@ -13248,29 +13701,32 @@
       <c r="C149" t="s">
         <v>20</v>
       </c>
-      <c r="D149">
-        <v>0</v>
+      <c r="D149" t="s">
+        <v>188</v>
       </c>
       <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
         <v>1.22</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>0.7</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>4.13</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>20.79</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>26.62</v>
       </c>
-      <c r="J149">
+      <c r="K149">
         <v>29.54</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>174</v>
       </c>
@@ -13280,29 +13736,32 @@
       <c r="C150" t="s">
         <v>20</v>
       </c>
-      <c r="D150">
+      <c r="D150" t="s">
+        <v>188</v>
+      </c>
+      <c r="E150">
         <v>1.42</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>4.34</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>0.69</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>7.1</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>13.46</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>21.97</v>
       </c>
-      <c r="J150">
+      <c r="K150">
         <v>22.54</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>175</v>
       </c>
@@ -13312,29 +13771,32 @@
       <c r="C151" t="s">
         <v>20</v>
       </c>
-      <c r="D151">
-        <v>0</v>
+      <c r="D151" t="s">
+        <v>188</v>
       </c>
       <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
         <v>1.43</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>0.82</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>16.66</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>13.28</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>31.95</v>
       </c>
-      <c r="J151">
+      <c r="K151">
         <v>14.83</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>176</v>
       </c>
@@ -13344,29 +13806,32 @@
       <c r="C152" t="s">
         <v>20</v>
       </c>
-      <c r="D152">
-        <v>0</v>
+      <c r="D152" t="s">
+        <v>188</v>
       </c>
       <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
         <v>1.52</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>1.24</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>24.73</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>17.600000000000001</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>10.039999999999999</v>
       </c>
-      <c r="J152">
+      <c r="K152">
         <v>33.130000000000003</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>177</v>
       </c>
@@ -13376,29 +13841,32 @@
       <c r="C153" t="s">
         <v>19</v>
       </c>
-      <c r="D153">
+      <c r="D153" t="s">
+        <v>188</v>
+      </c>
+      <c r="E153">
         <v>0.61</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>0.79</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>1.98</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>4.93</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>13.35</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>47.64</v>
       </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>178</v>
       </c>
@@ -13408,29 +13876,32 @@
       <c r="C154" t="s">
         <v>19</v>
       </c>
-      <c r="D154">
-        <v>0</v>
+      <c r="D154" t="s">
+        <v>188</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
         <v>0.25</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>2.73</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>69.92</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>8.06</v>
       </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>179</v>
       </c>
@@ -13440,29 +13911,32 @@
       <c r="C155" t="s">
         <v>19</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="s">
+        <v>188</v>
+      </c>
+      <c r="E155">
         <v>0.39</v>
       </c>
-      <c r="E155">
-        <v>0</v>
-      </c>
       <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
         <v>0.39</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>1.37</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>20.95</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>70.5</v>
       </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>180</v>
       </c>
@@ -13472,29 +13946,32 @@
       <c r="C156" t="s">
         <v>19</v>
       </c>
-      <c r="D156">
-        <v>0</v>
+      <c r="D156" t="s">
+        <v>188</v>
       </c>
       <c r="E156">
         <v>0</v>
       </c>
       <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
         <v>0.46</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>3.96</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>67.2</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>3.17</v>
       </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>181</v>
       </c>
@@ -13504,29 +13981,32 @@
       <c r="C157" t="s">
         <v>19</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="s">
+        <v>188</v>
+      </c>
+      <c r="E157">
         <v>0.89</v>
       </c>
-      <c r="E157">
-        <v>0</v>
-      </c>
       <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>1.93</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>1.79</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>77.040000000000006</v>
       </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>182</v>
       </c>
@@ -13536,29 +14016,32 @@
       <c r="C158" t="s">
         <v>19</v>
       </c>
-      <c r="D158">
-        <v>0</v>
+      <c r="D158" t="s">
+        <v>188</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
       <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
         <v>0.34</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>1.96</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <v>63.24</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>10.17</v>
       </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>183</v>
       </c>
@@ -13568,29 +14051,32 @@
       <c r="C159" t="s">
         <v>19</v>
       </c>
-      <c r="D159">
+      <c r="D159" t="s">
+        <v>188</v>
+      </c>
+      <c r="E159">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E159">
-        <v>0</v>
-      </c>
       <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
         <v>0.26</v>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>2.85</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>68.13</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>7.64</v>
       </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>184</v>
       </c>
@@ -13600,29 +14086,32 @@
       <c r="C160" t="s">
         <v>19</v>
       </c>
-      <c r="D160">
-        <v>0</v>
+      <c r="D160" t="s">
+        <v>188</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
       <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
         <v>0.27</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>2.4500000000000002</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>68.75</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>2.81</v>
       </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>185</v>
       </c>
@@ -13632,25 +14121,28 @@
       <c r="C161" t="s">
         <v>19</v>
       </c>
-      <c r="D161">
-        <v>0</v>
+      <c r="D161" t="s">
+        <v>188</v>
       </c>
       <c r="E161">
         <v>0</v>
       </c>
       <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
         <v>0.44</v>
       </c>
-      <c r="G161">
+      <c r="H161">
         <v>2.39</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>72.930000000000007</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>2.57</v>
       </c>
-      <c r="J161">
+      <c r="K161">
         <v>0</v>
       </c>
     </row>
